--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Vegfc-Nrp2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Vegfc-Nrp2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.263122</v>
+        <v>6.775549333333333</v>
       </c>
       <c r="H2">
-        <v>9.789365999999999</v>
+        <v>20.326648</v>
       </c>
       <c r="I2">
-        <v>0.3531375780718168</v>
+        <v>0.5307754563424079</v>
       </c>
       <c r="J2">
-        <v>0.3531375780718168</v>
+        <v>0.5307754563424079</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>35.31114333333333</v>
+        <v>70.23436</v>
       </c>
       <c r="N2">
-        <v>105.93343</v>
+        <v>210.70308</v>
       </c>
       <c r="O2">
-        <v>0.6187867769880316</v>
+        <v>0.7023186840741513</v>
       </c>
       <c r="P2">
-        <v>0.6187867769880318</v>
+        <v>0.7023186840741513</v>
       </c>
       <c r="Q2">
-        <v>115.2245686561533</v>
+        <v>475.8763710750933</v>
       </c>
       <c r="R2">
-        <v>1037.02111790538</v>
+        <v>4282.88733967584</v>
       </c>
       <c r="S2">
-        <v>0.2185168637684189</v>
+        <v>0.3727735200372571</v>
       </c>
       <c r="T2">
-        <v>0.2185168637684189</v>
+        <v>0.3727735200372571</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.263122</v>
+        <v>6.775549333333333</v>
       </c>
       <c r="H3">
-        <v>9.789365999999999</v>
+        <v>20.326648</v>
       </c>
       <c r="I3">
-        <v>0.3531375780718168</v>
+        <v>0.5307754563424079</v>
       </c>
       <c r="J3">
-        <v>0.3531375780718168</v>
+        <v>0.5307754563424079</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>19.654086</v>
       </c>
       <c r="O3">
-        <v>0.1148050103785518</v>
+        <v>0.06551129587759326</v>
       </c>
       <c r="P3">
-        <v>0.1148050103785518</v>
+        <v>0.06551129587759325</v>
       </c>
       <c r="Q3">
-        <v>21.377893472164</v>
+        <v>44.38907643152533</v>
       </c>
       <c r="R3">
-        <v>192.401041249476</v>
+        <v>399.501687883728</v>
       </c>
       <c r="S3">
-        <v>0.04054196331559158</v>
+        <v>0.03477178796501206</v>
       </c>
       <c r="T3">
-        <v>0.04054196331559159</v>
+        <v>0.03477178796501205</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.263122</v>
+        <v>6.775549333333333</v>
       </c>
       <c r="H4">
-        <v>9.789365999999999</v>
+        <v>20.326648</v>
       </c>
       <c r="I4">
-        <v>0.3531375780718168</v>
+        <v>0.5307754563424079</v>
       </c>
       <c r="J4">
-        <v>0.3531375780718168</v>
+        <v>0.5307754563424079</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.250702333333333</v>
+        <v>4.268944666666666</v>
       </c>
       <c r="N4">
-        <v>12.752107</v>
+        <v>12.806834</v>
       </c>
       <c r="O4">
-        <v>0.07448862167812857</v>
+        <v>0.04268793224112385</v>
       </c>
       <c r="P4">
-        <v>0.07448862167812859</v>
+        <v>0.04268793224112385</v>
       </c>
       <c r="Q4">
-        <v>13.87056029935133</v>
+        <v>28.92444519027022</v>
       </c>
       <c r="R4">
-        <v>124.835042694162</v>
+        <v>260.320006712432</v>
       </c>
       <c r="S4">
-        <v>0.02630473145332215</v>
+        <v>0.0226577067155963</v>
       </c>
       <c r="T4">
-        <v>0.02630473145332216</v>
+        <v>0.0226577067155963</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.263122</v>
+        <v>6.775549333333333</v>
       </c>
       <c r="H5">
-        <v>9.789365999999999</v>
+        <v>20.326648</v>
       </c>
       <c r="I5">
-        <v>0.3531375780718168</v>
+        <v>0.5307754563424079</v>
       </c>
       <c r="J5">
-        <v>0.3531375780718168</v>
+        <v>0.5307754563424079</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.951915</v>
+        <v>18.948881</v>
       </c>
       <c r="N5">
-        <v>32.855745</v>
+        <v>56.846643</v>
       </c>
       <c r="O5">
-        <v>0.191919590955288</v>
+        <v>0.1894820878071316</v>
       </c>
       <c r="P5">
-        <v>0.191919590955288</v>
+        <v>0.1894820878071315</v>
       </c>
       <c r="Q5">
-        <v>35.73743477863</v>
+        <v>128.3890780269627</v>
       </c>
       <c r="R5">
-        <v>321.63691300767</v>
+        <v>1155.501702242664</v>
       </c>
       <c r="S5">
-        <v>0.06777401953448416</v>
+        <v>0.1005724416245425</v>
       </c>
       <c r="T5">
-        <v>0.06777401953448417</v>
+        <v>0.1005724416245424</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>13.101932</v>
       </c>
       <c r="I6">
-        <v>0.4726337266929886</v>
+        <v>0.3421215311185197</v>
       </c>
       <c r="J6">
-        <v>0.4726337266929886</v>
+        <v>0.3421215311185197</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>35.31114333333333</v>
+        <v>70.23436</v>
       </c>
       <c r="N6">
-        <v>105.93343</v>
+        <v>210.70308</v>
       </c>
       <c r="O6">
-        <v>0.6187867769880316</v>
+        <v>0.7023186840741513</v>
       </c>
       <c r="P6">
-        <v>0.6187867769880318</v>
+        <v>0.7023186840741513</v>
       </c>
       <c r="Q6">
-        <v>154.2147329318622</v>
+        <v>306.7352695945066</v>
       </c>
       <c r="R6">
-        <v>1387.93259638676</v>
+        <v>2760.61742635056</v>
       </c>
       <c r="S6">
-        <v>0.2924595004361966</v>
+        <v>0.2402783435285926</v>
       </c>
       <c r="T6">
-        <v>0.2924595004361967</v>
+        <v>0.2402783435285926</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>13.101932</v>
       </c>
       <c r="I7">
-        <v>0.4726337266929886</v>
+        <v>0.3421215311185197</v>
       </c>
       <c r="J7">
-        <v>0.4726337266929886</v>
+        <v>0.3421215311185197</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>19.654086</v>
       </c>
       <c r="O7">
-        <v>0.1148050103785518</v>
+        <v>0.06551129587759326</v>
       </c>
       <c r="P7">
-        <v>0.1148050103785518</v>
+        <v>0.06551129587759325</v>
       </c>
       <c r="Q7">
         <v>28.61183314379467</v>
@@ -883,10 +883,10 @@
         <v>257.506498294152</v>
       </c>
       <c r="S7">
-        <v>0.05426071989824218</v>
+        <v>0.02241282485120058</v>
       </c>
       <c r="T7">
-        <v>0.05426071989824219</v>
+        <v>0.02241282485120057</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>13.101932</v>
       </c>
       <c r="I8">
-        <v>0.4726337266929886</v>
+        <v>0.3421215311185197</v>
       </c>
       <c r="J8">
-        <v>0.4726337266929886</v>
+        <v>0.3421215311185197</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.250702333333333</v>
+        <v>4.268944666666666</v>
       </c>
       <c r="N8">
-        <v>12.752107</v>
+        <v>12.806834</v>
       </c>
       <c r="O8">
-        <v>0.07448862167812857</v>
+        <v>0.04268793224112385</v>
       </c>
       <c r="P8">
-        <v>0.07448862167812859</v>
+        <v>0.04268793224112385</v>
       </c>
       <c r="Q8">
-        <v>18.56413764119155</v>
+        <v>18.64380757814311</v>
       </c>
       <c r="R8">
-        <v>167.077238770724</v>
+        <v>167.794268203288</v>
       </c>
       <c r="S8">
-        <v>0.03520583485995805</v>
+        <v>0.01460446073861692</v>
       </c>
       <c r="T8">
-        <v>0.03520583485995805</v>
+        <v>0.01460446073861692</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>13.101932</v>
       </c>
       <c r="I9">
-        <v>0.4726337266929886</v>
+        <v>0.3421215311185197</v>
       </c>
       <c r="J9">
-        <v>0.4726337266929886</v>
+        <v>0.3421215311185197</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.951915</v>
+        <v>18.948881</v>
       </c>
       <c r="N9">
-        <v>32.855745</v>
+        <v>56.846643</v>
       </c>
       <c r="O9">
-        <v>0.191919590955288</v>
+        <v>0.1894820878071316</v>
       </c>
       <c r="P9">
-        <v>0.191919590955288</v>
+        <v>0.1894820878071315</v>
       </c>
       <c r="Q9">
-        <v>47.83041519992666</v>
+        <v>82.75565011269734</v>
       </c>
       <c r="R9">
-        <v>430.47373679934</v>
+        <v>744.800851014276</v>
       </c>
       <c r="S9">
-        <v>0.09070767149859174</v>
+        <v>0.06482590200010965</v>
       </c>
       <c r="T9">
-        <v>0.09070767149859175</v>
+        <v>0.06482590200010964</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.609937666666666</v>
+        <v>1.622518</v>
       </c>
       <c r="H10">
-        <v>4.829813</v>
+        <v>4.867554</v>
       </c>
       <c r="I10">
-        <v>0.1742286952351946</v>
+        <v>0.1271030125390725</v>
       </c>
       <c r="J10">
-        <v>0.1742286952351946</v>
+        <v>0.1271030125390725</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>35.31114333333333</v>
+        <v>70.23436</v>
       </c>
       <c r="N10">
-        <v>105.93343</v>
+        <v>210.70308</v>
       </c>
       <c r="O10">
-        <v>0.6187867769880316</v>
+        <v>0.7023186840741513</v>
       </c>
       <c r="P10">
-        <v>0.6187867769880318</v>
+        <v>0.7023186840741513</v>
       </c>
       <c r="Q10">
-        <v>56.84873970539888</v>
+        <v>113.95651331848</v>
       </c>
       <c r="R10">
-        <v>511.63865734859</v>
+        <v>1025.60861986632</v>
       </c>
       <c r="S10">
-        <v>0.1078104127834161</v>
+        <v>0.08926682050830174</v>
       </c>
       <c r="T10">
-        <v>0.1078104127834161</v>
+        <v>0.08926682050830174</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.609937666666666</v>
+        <v>1.622518</v>
       </c>
       <c r="H11">
-        <v>4.829813</v>
+        <v>4.867554</v>
       </c>
       <c r="I11">
-        <v>0.1742286952351946</v>
+        <v>0.1271030125390725</v>
       </c>
       <c r="J11">
-        <v>0.1742286952351946</v>
+        <v>0.1271030125390725</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>19.654086</v>
       </c>
       <c r="O11">
-        <v>0.1148050103785518</v>
+        <v>0.06551129587759326</v>
       </c>
       <c r="P11">
-        <v>0.1148050103785518</v>
+        <v>0.06551129587759325</v>
       </c>
       <c r="Q11">
-        <v>10.54728445176867</v>
+        <v>10.629702769516</v>
       </c>
       <c r="R11">
-        <v>94.92556006591799</v>
+        <v>95.667324925644</v>
       </c>
       <c r="S11">
-        <v>0.02000232716471806</v>
+        <v>0.008326683061380624</v>
       </c>
       <c r="T11">
-        <v>0.02000232716471806</v>
+        <v>0.008326683061380622</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.609937666666666</v>
+        <v>1.622518</v>
       </c>
       <c r="H12">
-        <v>4.829813</v>
+        <v>4.867554</v>
       </c>
       <c r="I12">
-        <v>0.1742286952351946</v>
+        <v>0.1271030125390725</v>
       </c>
       <c r="J12">
-        <v>0.1742286952351946</v>
+        <v>0.1271030125390725</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.250702333333333</v>
+        <v>4.268944666666666</v>
       </c>
       <c r="N12">
-        <v>12.752107</v>
+        <v>12.806834</v>
       </c>
       <c r="O12">
-        <v>0.07448862167812857</v>
+        <v>0.04268793224112385</v>
       </c>
       <c r="P12">
-        <v>0.07448862167812859</v>
+        <v>0.04268793224112385</v>
       </c>
       <c r="Q12">
-        <v>6.843365796221221</v>
+        <v>6.926439562670667</v>
       </c>
       <c r="R12">
-        <v>61.59029216599099</v>
+        <v>62.33795606403599</v>
       </c>
       <c r="S12">
-        <v>0.01297805536484837</v>
+        <v>0.005425764786910642</v>
       </c>
       <c r="T12">
-        <v>0.01297805536484837</v>
+        <v>0.005425764786910642</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.609937666666666</v>
+        <v>1.622518</v>
       </c>
       <c r="H13">
-        <v>4.829813</v>
+        <v>4.867554</v>
       </c>
       <c r="I13">
-        <v>0.1742286952351946</v>
+        <v>0.1271030125390725</v>
       </c>
       <c r="J13">
-        <v>0.1742286952351946</v>
+        <v>0.1271030125390725</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.951915</v>
+        <v>18.948881</v>
       </c>
       <c r="N13">
-        <v>32.855745</v>
+        <v>56.846643</v>
       </c>
       <c r="O13">
-        <v>0.191919590955288</v>
+        <v>0.1894820878071316</v>
       </c>
       <c r="P13">
-        <v>0.191919590955288</v>
+        <v>0.1894820878071315</v>
       </c>
       <c r="Q13">
-        <v>17.63190048063166</v>
+        <v>30.744900502358</v>
       </c>
       <c r="R13">
-        <v>158.687104325685</v>
+        <v>276.704104521222</v>
       </c>
       <c r="S13">
-        <v>0.03343789992221208</v>
+        <v>0.02408374418247948</v>
       </c>
       <c r="T13">
-        <v>0.03343789992221208</v>
+        <v>0.02408374418247948</v>
       </c>
     </row>
   </sheetData>
